--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>shipmentType</t>
   </si>
@@ -226,91 +226,46 @@
     <t>Test Order13</t>
   </si>
   <si>
-    <t>51457069</t>
-  </si>
-  <si>
-    <t>51457070</t>
-  </si>
-  <si>
-    <t>51457071</t>
-  </si>
-  <si>
-    <t>51457072</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>51457105</t>
-  </si>
-  <si>
-    <t>51457108</t>
-  </si>
-  <si>
-    <t>51457111</t>
-  </si>
-  <si>
-    <t>51457113</t>
-  </si>
-  <si>
-    <t>51457118</t>
-  </si>
-  <si>
-    <t>51457119</t>
-  </si>
-  <si>
-    <t>51457120</t>
-  </si>
-  <si>
-    <t>51457121</t>
-  </si>
-  <si>
-    <t>51457126</t>
-  </si>
-  <si>
-    <t>51457127</t>
-  </si>
-  <si>
-    <t>51457128</t>
-  </si>
-  <si>
-    <t>51457129</t>
-  </si>
-  <si>
-    <t>51457154</t>
-  </si>
-  <si>
-    <t>51457155</t>
-  </si>
-  <si>
-    <t>51457156</t>
-  </si>
-  <si>
-    <t>51457157</t>
-  </si>
-  <si>
-    <t>51457285</t>
-  </si>
-  <si>
-    <t>51457286</t>
-  </si>
-  <si>
-    <t>51457287</t>
-  </si>
-  <si>
-    <t>51457288</t>
-  </si>
-  <si>
-    <t>51463299</t>
-  </si>
-  <si>
-    <t>51463300</t>
-  </si>
-  <si>
-    <t>51463301</t>
-  </si>
-  <si>
-    <t>51463302</t>
+    <t>90001</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>51480527</t>
+  </si>
+  <si>
+    <t>51480528</t>
+  </si>
+  <si>
+    <t>51480529</t>
+  </si>
+  <si>
+    <t>51480534</t>
+  </si>
+  <si>
+    <t>51480535</t>
+  </si>
+  <si>
+    <t>51480550</t>
+  </si>
+  <si>
+    <t>51480551</t>
+  </si>
+  <si>
+    <t>51480552</t>
+  </si>
+  <si>
+    <t>51482066</t>
+  </si>
+  <si>
+    <t>51482067</t>
+  </si>
+  <si>
+    <t>51482079</t>
   </si>
 </sst>
 </file>
@@ -357,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -447,6 +402,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -457,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -479,34 +445,22 @@
     <xf applyBorder="1" applyFill="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -789,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,8 +764,7 @@
     <col min="13" max="13" customWidth="true" style="4" width="14.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" style="4" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" style="4" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" style="4" width="9.140625" collapsed="true"/>
+    <col min="16" max="17" style="4" width="9.140625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="9.95703125" collapsed="true"/>
     <col min="19" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
@@ -826,13 +779,13 @@
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -866,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>41</v>
@@ -882,14 +835,14 @@
       <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="5">
-        <v>90001</v>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="5">
-        <v>10011</v>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>35</v>
@@ -918,11 +871,11 @@
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="Q2" s="20">
-        <v>1</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>86</v>
+      <c r="Q2" s="17">
+        <v>1</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:18">
@@ -935,14 +888,14 @@
       <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5">
-        <v>90001</v>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="5">
-        <v>10011</v>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>35</v>
@@ -971,11 +924,11 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="20">
-        <v>1</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>87</v>
+      <c r="Q3" s="17">
+        <v>1</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:18">
@@ -988,14 +941,14 @@
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="5">
-        <v>90001</v>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5">
-        <v>10011</v>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>35</v>
@@ -1024,7 +977,7 @@
       <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>1</v>
       </c>
       <c r="R4" s="14"/>
@@ -1039,14 +992,14 @@
       <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="5">
-        <v>90001</v>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5">
-        <v>10011</v>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>53</v>
@@ -1075,11 +1028,11 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="20">
-        <v>1</v>
-      </c>
-      <c r="R5" s="43" t="s">
-        <v>88</v>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="6" s="6" spans="1:18">
@@ -1092,14 +1045,14 @@
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5">
-        <v>90001</v>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5">
-        <v>10011</v>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>53</v>
@@ -1128,11 +1081,11 @@
       <c r="P6" s="6">
         <v>1</v>
       </c>
-      <c r="Q6" s="20">
-        <v>1</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>89</v>
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:18">
@@ -1145,14 +1098,14 @@
       <c r="C7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5">
-        <v>90001</v>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5">
-        <v>10011</v>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>53</v>
@@ -1181,7 +1134,7 @@
       <c r="P7" s="6">
         <v>1</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="17">
         <v>1</v>
       </c>
       <c r="R7" s="15"/>
@@ -1196,14 +1149,14 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5">
-        <v>90001</v>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5">
-        <v>10011</v>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>35</v>
@@ -1232,7 +1185,7 @@
       <c r="P8" s="6">
         <v>1</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <v>11</v>
       </c>
       <c r="R8" s="11"/>
@@ -1247,14 +1200,14 @@
       <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5">
-        <v>90001</v>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="5">
-        <v>10011</v>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>35</v>
@@ -1280,7 +1233,7 @@
       <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1294,14 +1247,14 @@
       <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5">
-        <v>90001</v>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5">
-        <v>10011</v>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
@@ -1330,7 +1283,7 @@
       <c r="P10" s="6">
         <v>1</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>1</v>
       </c>
       <c r="R10" s="12"/>
@@ -1345,14 +1298,14 @@
       <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5">
-        <v>90001</v>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5">
-        <v>10011</v>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>35</v>
@@ -1378,7 +1331,7 @@
       <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1392,14 +1345,14 @@
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5">
-        <v>90001</v>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5">
-        <v>10011</v>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>35</v>
@@ -1428,7 +1381,7 @@
       <c r="P12" s="6">
         <v>1</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="17">
         <v>1</v>
       </c>
       <c r="R12" s="12"/>
@@ -1443,14 +1396,14 @@
       <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5">
-        <v>90001</v>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5">
-        <v>10011</v>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>53</v>
@@ -1479,7 +1432,7 @@
       <c r="P13" s="6">
         <v>1</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="17">
         <v>1</v>
       </c>
       <c r="R13" s="13"/>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="83">
   <si>
     <t>shipmentType</t>
   </si>
@@ -266,6 +266,30 @@
   </si>
   <si>
     <t>51482079</t>
+  </si>
+  <si>
+    <t>51482141</t>
+  </si>
+  <si>
+    <t>51482142</t>
+  </si>
+  <si>
+    <t>51482143</t>
+  </si>
+  <si>
+    <t>51482144</t>
+  </si>
+  <si>
+    <t>51482363</t>
+  </si>
+  <si>
+    <t>51482364</t>
+  </si>
+  <si>
+    <t>51482365</t>
+  </si>
+  <si>
+    <t>51482367</t>
   </si>
 </sst>
 </file>
@@ -423,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -450,6 +474,14 @@
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -874,8 +906,8 @@
       <c r="Q2" s="17">
         <v>1</v>
       </c>
-      <c r="R2" s="30" t="s">
-        <v>72</v>
+      <c r="R2" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:18">
@@ -927,8 +959,8 @@
       <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="31" t="s">
-        <v>73</v>
+      <c r="R3" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:18">
@@ -1031,8 +1063,8 @@
       <c r="Q5" s="17">
         <v>1</v>
       </c>
-      <c r="R5" s="29" t="s">
-        <v>71</v>
+      <c r="R5" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="6" s="6" spans="1:18">
@@ -1084,8 +1116,8 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="32" t="s">
-        <v>74</v>
+      <c r="R6" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:18">

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
   <si>
     <t>shipmentType</t>
   </si>
@@ -290,6 +290,48 @@
   </si>
   <si>
     <t>51482367</t>
+  </si>
+  <si>
+    <t>51483216</t>
+  </si>
+  <si>
+    <t>51483217</t>
+  </si>
+  <si>
+    <t>51483218</t>
+  </si>
+  <si>
+    <t>51483219</t>
+  </si>
+  <si>
+    <t>51483957</t>
+  </si>
+  <si>
+    <t>51483958</t>
+  </si>
+  <si>
+    <t>51483959</t>
+  </si>
+  <si>
+    <t>51483960</t>
+  </si>
+  <si>
+    <t>51484881</t>
+  </si>
+  <si>
+    <t>51484882</t>
+  </si>
+  <si>
+    <t>51484883</t>
+  </si>
+  <si>
+    <t>51484912</t>
+  </si>
+  <si>
+    <t>51484913</t>
+  </si>
+  <si>
+    <t>51484915</t>
   </si>
 </sst>
 </file>
@@ -447,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -474,6 +516,20 @@
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -906,8 +962,8 @@
       <c r="Q2" s="17">
         <v>1</v>
       </c>
-      <c r="R2" s="37" t="s">
-        <v>79</v>
+      <c r="R2" s="52" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:18">
@@ -959,8 +1015,8 @@
       <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>80</v>
+      <c r="R3" s="53" t="s">
+        <v>95</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:18">
@@ -1063,8 +1119,8 @@
       <c r="Q5" s="17">
         <v>1</v>
       </c>
-      <c r="R5" s="39" t="s">
-        <v>81</v>
+      <c r="R5" s="50" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="6" s="6" spans="1:18">
@@ -1116,8 +1172,8 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="40" t="s">
-        <v>82</v>
+      <c r="R6" s="54" t="s">
+        <v>96</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:18">

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>shipmentType</t>
   </si>
@@ -383,6 +383,21 @@
   </si>
   <si>
     <t>51487063</t>
+  </si>
+  <si>
+    <t>51488525</t>
+  </si>
+  <si>
+    <t>51488526</t>
+  </si>
+  <si>
+    <t>51488653</t>
+  </si>
+  <si>
+    <t>51488654</t>
+  </si>
+  <si>
+    <t>51488656</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -567,6 +582,11 @@
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1030,8 +1050,8 @@
       <c r="Q2" s="17">
         <v>1</v>
       </c>
-      <c r="R2" s="68" t="s">
-        <v>110</v>
+      <c r="R2" s="74" t="s">
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:18">
@@ -1083,8 +1103,8 @@
       <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="69" t="s">
-        <v>111</v>
+      <c r="R3" s="75" t="s">
+        <v>117</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:18">
@@ -1240,8 +1260,8 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="71" t="s">
-        <v>113</v>
+      <c r="R6" s="76" t="s">
+        <v>118</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:18">

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{D73B6299-A76A-440D-8EE6-3321228458B1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView tabRatio="449" windowHeight="11760" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -13,7 +19,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
   <si>
     <t>shipmentType</t>
   </si>
@@ -235,177 +241,42 @@
     <t>10011</t>
   </si>
   <si>
-    <t>51480527</t>
-  </si>
-  <si>
-    <t>51480528</t>
-  </si>
-  <si>
-    <t>51480529</t>
-  </si>
-  <si>
-    <t>51480534</t>
-  </si>
-  <si>
-    <t>51480535</t>
-  </si>
-  <si>
-    <t>51480550</t>
-  </si>
-  <si>
-    <t>51480551</t>
-  </si>
-  <si>
-    <t>51480552</t>
-  </si>
-  <si>
-    <t>51482066</t>
-  </si>
-  <si>
-    <t>51482067</t>
-  </si>
-  <si>
-    <t>51482079</t>
-  </si>
-  <si>
-    <t>51482141</t>
-  </si>
-  <si>
-    <t>51482142</t>
-  </si>
-  <si>
-    <t>51482143</t>
-  </si>
-  <si>
-    <t>51482144</t>
-  </si>
-  <si>
-    <t>51482363</t>
-  </si>
-  <si>
-    <t>51482364</t>
-  </si>
-  <si>
-    <t>51482365</t>
-  </si>
-  <si>
-    <t>51482367</t>
-  </si>
-  <si>
-    <t>51483216</t>
-  </si>
-  <si>
-    <t>51483217</t>
-  </si>
-  <si>
-    <t>51483218</t>
-  </si>
-  <si>
-    <t>51483219</t>
-  </si>
-  <si>
-    <t>51483957</t>
-  </si>
-  <si>
-    <t>51483958</t>
-  </si>
-  <si>
-    <t>51483959</t>
-  </si>
-  <si>
-    <t>51483960</t>
-  </si>
-  <si>
-    <t>51484881</t>
-  </si>
-  <si>
-    <t>51484882</t>
-  </si>
-  <si>
-    <t>51484883</t>
-  </si>
-  <si>
-    <t>51484912</t>
-  </si>
-  <si>
-    <t>51484913</t>
-  </si>
-  <si>
-    <t>51484915</t>
-  </si>
-  <si>
-    <t>51486405</t>
-  </si>
-  <si>
-    <t>51486406</t>
-  </si>
-  <si>
-    <t>51486407</t>
-  </si>
-  <si>
-    <t>51486408</t>
-  </si>
-  <si>
-    <t>51486785</t>
-  </si>
-  <si>
-    <t>51486786</t>
-  </si>
-  <si>
-    <t>51486787</t>
-  </si>
-  <si>
-    <t>51486788</t>
-  </si>
-  <si>
-    <t>51486880</t>
-  </si>
-  <si>
-    <t>51486881</t>
-  </si>
-  <si>
-    <t>51486882</t>
-  </si>
-  <si>
-    <t>51486926</t>
-  </si>
-  <si>
-    <t>51486927</t>
-  </si>
-  <si>
-    <t>51487060</t>
-  </si>
-  <si>
-    <t>51487061</t>
-  </si>
-  <si>
-    <t>51487062</t>
-  </si>
-  <si>
-    <t>51487063</t>
-  </si>
-  <si>
-    <t>51488525</t>
-  </si>
-  <si>
-    <t>51488526</t>
-  </si>
-  <si>
-    <t>51488653</t>
-  </si>
-  <si>
-    <t>51488654</t>
-  </si>
-  <si>
-    <t>51488656</t>
+    <t>PalletType</t>
+  </si>
+  <si>
+    <t>Generic Pallet</t>
+  </si>
+  <si>
+    <t>51490977</t>
+  </si>
+  <si>
+    <t>51490978</t>
+  </si>
+  <si>
+    <t>51490980</t>
+  </si>
+  <si>
+    <t>51490981</t>
+  </si>
+  <si>
+    <t>51490982</t>
+  </si>
+  <si>
+    <t>51490983</t>
+  </si>
+  <si>
+    <t>51490984</t>
+  </si>
+  <si>
+    <t>51490985</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,7 +291,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +314,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -551,11 +502,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -582,61 +582,14 @@
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -916,14 +869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="4" width="18.0" collapsed="true"/>
@@ -942,10 +895,11 @@
     <col min="15" max="15" customWidth="true" style="4" width="8.42578125" collapsed="true"/>
     <col min="16" max="17" style="4" width="9.140625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="9.95703125" collapsed="true"/>
-    <col min="19" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="4" width="13.5703125" collapsed="true"/>
+    <col min="20" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:18">
+    <row customFormat="1" r="1" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +954,11 @@
       <c r="R1" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="6" spans="1:18">
+      <c r="S1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1050,11 +1007,14 @@
       <c r="Q2" s="17">
         <v>1</v>
       </c>
-      <c r="R2" s="74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:18">
+      <c r="R2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1103,11 +1063,14 @@
       <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:18">
+      <c r="R3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1157,8 +1120,11 @@
         <v>1</v>
       </c>
       <c r="R4" s="14"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="6" spans="1:18">
+      <c r="S4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1207,11 +1173,14 @@
       <c r="Q5" s="17">
         <v>1</v>
       </c>
-      <c r="R5" s="70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="6" spans="1:18">
+      <c r="R5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1260,11 +1229,14 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:18">
+      <c r="R6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -1314,8 +1286,11 @@
         <v>1</v>
       </c>
       <c r="R7" s="15"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="6" spans="1:18">
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1365,8 +1340,11 @@
         <v>11</v>
       </c>
       <c r="R8" s="11"/>
-    </row>
-    <row customFormat="1" r="9" s="6" spans="1:18">
+      <c r="S8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -1412,8 +1390,11 @@
       <c r="Q9" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="6" spans="1:18">
+      <c r="S9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1463,8 +1444,11 @@
         <v>1</v>
       </c>
       <c r="R10" s="12"/>
-    </row>
-    <row customFormat="1" r="11" s="6" spans="1:18">
+      <c r="S10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1510,8 +1494,11 @@
       <c r="Q11" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="12" s="6" spans="1:18">
+      <c r="S11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="12" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1561,8 +1548,11 @@
         <v>1</v>
       </c>
       <c r="R12" s="12"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="13" s="6" spans="1:18">
+      <c r="S12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="13" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1612,6 +1602,9 @@
         <v>1</v>
       </c>
       <c r="R13" s="13"/>
+      <c r="S13" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1620,14 +1613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="31.140625" collapsed="true"/>
@@ -1646,7 +1639,7 @@
     <col min="17" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:16">
+    <row customFormat="1" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="6" spans="1:16">
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1737,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row customFormat="1" r="3" s="6" spans="1:16">
+    <row customFormat="1" r="3" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1779,7 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row customFormat="1" r="4" s="6" spans="1:16">
+    <row customFormat="1" r="4" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +1818,7 @@
       </c>
       <c r="P4" s="9"/>
     </row>
-    <row customFormat="1" r="5" s="6" spans="1:16">
+    <row customFormat="1" r="5" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1876,21 +1869,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="28.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:3">
+    <row ht="45" r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:3">
+    <row ht="75" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:3">
+    <row ht="30" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1932,7 +1925,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +1934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:3">
+    <row ht="30" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:3">
+    <row ht="30" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +1974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row ht="75" r="10" spans="1:3">
+    <row ht="75" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1990,7 +1983,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2001,28 +1994,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row ht="180" r="15" spans="1:3">
+    <row ht="180" r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
   <si>
     <t>shipmentType</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>51490985</t>
+  </si>
+  <si>
+    <t>51495330</t>
+  </si>
+  <si>
+    <t>51495331</t>
+  </si>
+  <si>
+    <t>51495332</t>
+  </si>
+  <si>
+    <t>51495333</t>
   </si>
 </sst>
 </file>
@@ -291,7 +303,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +406,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -551,11 +603,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -589,7 +669,11 @@
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="20" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="22" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1007,8 +1091,8 @@
       <c r="Q2" s="17">
         <v>1</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>70</v>
+      <c r="R2" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>65</v>
@@ -1063,8 +1147,8 @@
       <c r="Q3" s="17">
         <v>1</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>71</v>
+      <c r="R3" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>65</v>
@@ -1173,8 +1257,8 @@
       <c r="Q5" s="17">
         <v>1</v>
       </c>
-      <c r="R5" s="28" t="s">
-        <v>72</v>
+      <c r="R5" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>65</v>
@@ -1229,8 +1313,8 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="29" t="s">
-        <v>73</v>
+      <c r="R6" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>65</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>shipmentType</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>51498315</t>
+  </si>
+  <si>
+    <t>51498469</t>
+  </si>
+  <si>
+    <t>51498470</t>
+  </si>
+  <si>
+    <t>51498471</t>
+  </si>
+  <si>
+    <t>51498472</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +584,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -776,12 +828,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -818,7 +898,11 @@
     <xf applyBorder="true" applyFill="true" borderId="33" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="35" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1400,8 +1484,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>97</v>
+      <c r="R2" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -1463,8 +1547,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="34" t="s">
-        <v>98</v>
+      <c r="R3" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -1526,8 +1610,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="35" t="s">
-        <v>99</v>
+      <c r="R4" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -1589,8 +1673,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="36" t="s">
-        <v>100</v>
+      <c r="R5" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>shipmentType</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>51498472</t>
+  </si>
+  <si>
+    <t>51499025</t>
+  </si>
+  <si>
+    <t>51499055</t>
+  </si>
+  <si>
+    <t>51499056</t>
+  </si>
+  <si>
+    <t>51499061</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,8 +636,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -856,12 +908,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -902,7 +982,11 @@
     <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1484,8 +1568,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="37" t="s">
-        <v>101</v>
+      <c r="R2" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -1547,8 +1631,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>102</v>
+      <c r="R3" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -1610,8 +1694,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="39" t="s">
-        <v>103</v>
+      <c r="R4" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -1673,8 +1757,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>104</v>
+      <c r="R5" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
   <si>
     <t>shipmentType</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>51499061</t>
+  </si>
+  <si>
+    <t>51499614</t>
+  </si>
+  <si>
+    <t>51499615</t>
+  </si>
+  <si>
+    <t>51499616</t>
+  </si>
+  <si>
+    <t>51499617</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +688,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -936,12 +988,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -986,7 +1066,11 @@
     <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="63" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1568,8 +1652,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="41" t="s">
-        <v>105</v>
+      <c r="R2" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -1631,8 +1715,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="42" t="s">
-        <v>106</v>
+      <c r="R3" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -1694,8 +1778,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="43" t="s">
-        <v>107</v>
+      <c r="R4" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -1757,8 +1841,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="44" t="s">
-        <v>108</v>
+      <c r="R5" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>shipmentType</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>51499617</t>
+  </si>
+  <si>
+    <t>51499683</t>
+  </si>
+  <si>
+    <t>51499684</t>
+  </si>
+  <si>
+    <t>51499685</t>
+  </si>
+  <si>
+    <t>51499686</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="74">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,8 +740,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1016,12 +1068,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1070,7 +1150,11 @@
     <xf applyBorder="true" applyFill="true" borderId="57" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="59" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="61" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="63" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="71" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1652,8 +1736,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="45" t="s">
-        <v>109</v>
+      <c r="R2" s="49" t="s">
+        <v>113</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -1715,8 +1799,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="46" t="s">
-        <v>110</v>
+      <c r="R3" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -1778,8 +1862,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="47" t="s">
-        <v>111</v>
+      <c r="R4" s="51" t="s">
+        <v>115</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -1841,8 +1925,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="48" t="s">
-        <v>112</v>
+      <c r="R5" s="52" t="s">
+        <v>116</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>shipmentType</t>
   </si>
@@ -377,6 +377,36 @@
   </si>
   <si>
     <t>51499686</t>
+  </si>
+  <si>
+    <t>51500783</t>
+  </si>
+  <si>
+    <t>51500784</t>
+  </si>
+  <si>
+    <t>51500785</t>
+  </si>
+  <si>
+    <t>51500900</t>
+  </si>
+  <si>
+    <t>51500901</t>
+  </si>
+  <si>
+    <t>51500902</t>
+  </si>
+  <si>
+    <t>51501005</t>
+  </si>
+  <si>
+    <t>51501006</t>
+  </si>
+  <si>
+    <t>51501007</t>
+  </si>
+  <si>
+    <t>51501008</t>
   </si>
 </sst>
 </file>
@@ -413,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="94">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,8 +810,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -1096,12 +1226,82 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1154,7 +1354,17 @@
     <xf applyBorder="true" applyFill="true" borderId="65" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="71" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1736,8 +1946,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="49" t="s">
-        <v>113</v>
+      <c r="R2" s="59" t="s">
+        <v>123</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -1799,8 +2009,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="50" t="s">
-        <v>114</v>
+      <c r="R3" s="60" t="s">
+        <v>124</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -1862,8 +2072,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="51" t="s">
-        <v>115</v>
+      <c r="R4" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -1925,8 +2135,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="52" t="s">
-        <v>116</v>
+      <c r="R5" s="62" t="s">
+        <v>126</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t>shipmentType</t>
   </si>
@@ -407,6 +407,48 @@
   </si>
   <si>
     <t>51501008</t>
+  </si>
+  <si>
+    <t>51502019</t>
+  </si>
+  <si>
+    <t>51502020</t>
+  </si>
+  <si>
+    <t>51502021</t>
+  </si>
+  <si>
+    <t>51502022</t>
+  </si>
+  <si>
+    <t>51502078</t>
+  </si>
+  <si>
+    <t>51502079</t>
+  </si>
+  <si>
+    <t>51502080</t>
+  </si>
+  <si>
+    <t>51502081</t>
+  </si>
+  <si>
+    <t>51502217</t>
+  </si>
+  <si>
+    <t>51502218</t>
+  </si>
+  <si>
+    <t>51502220</t>
+  </si>
+  <si>
+    <t>51503439</t>
+  </si>
+  <si>
+    <t>51503440</t>
+  </si>
+  <si>
+    <t>51503442</t>
   </si>
 </sst>
 </file>
@@ -443,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="94">
+  <fills count="122">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,8 +952,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="92">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -1296,12 +1478,110 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1364,7 +1644,21 @@
     <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="119" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1946,8 +2240,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="59" t="s">
-        <v>123</v>
+      <c r="R2" s="74" t="s">
+        <v>138</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2009,8 +2303,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="60" t="s">
-        <v>124</v>
+      <c r="R3" s="75" t="s">
+        <v>139</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -2072,8 +2366,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="61" t="s">
-        <v>125</v>
+      <c r="R4" s="69" t="s">
+        <v>133</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -2135,8 +2429,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="62" t="s">
-        <v>126</v>
+      <c r="R5" s="76" t="s">
+        <v>140</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
   <si>
     <t>shipmentType</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>51503442</t>
+  </si>
+  <si>
+    <t>51521989</t>
+  </si>
+  <si>
+    <t>51521990</t>
+  </si>
+  <si>
+    <t>51521991</t>
+  </si>
+  <si>
+    <t>51521996</t>
   </si>
 </sst>
 </file>
@@ -485,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="122">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,8 +1104,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="120">
+  <borders count="128">
     <border>
       <left/>
       <right/>
@@ -1576,12 +1628,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1658,7 +1738,11 @@
     <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="119" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="127" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2240,8 +2324,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="74" t="s">
-        <v>138</v>
+      <c r="R2" s="77" t="s">
+        <v>141</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2303,8 +2387,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="75" t="s">
-        <v>139</v>
+      <c r="R3" s="78" t="s">
+        <v>142</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -2366,8 +2450,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="69" t="s">
-        <v>133</v>
+      <c r="R4" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -2429,8 +2513,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="76" t="s">
-        <v>140</v>
+      <c r="R5" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
   <si>
     <t>shipmentType</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>51521996</t>
+  </si>
+  <si>
+    <t>51522343</t>
+  </si>
+  <si>
+    <t>51522345</t>
+  </si>
+  <si>
+    <t>51522562</t>
+  </si>
+  <si>
+    <t>51522564</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="130">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,8 +1156,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="128">
+  <borders count="136">
     <border>
       <left/>
       <right/>
@@ -1656,12 +1708,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1742,7 +1822,11 @@
     <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="127" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="135" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2324,8 +2408,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="77" t="s">
-        <v>141</v>
+      <c r="R2" s="83" t="s">
+        <v>147</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2450,8 +2534,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="79" t="s">
-        <v>143</v>
+      <c r="R4" s="84" t="s">
+        <v>148</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="153">
   <si>
     <t>shipmentType</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>51522564</t>
+  </si>
+  <si>
+    <t>51523328</t>
+  </si>
+  <si>
+    <t>51523332</t>
+  </si>
+  <si>
+    <t>51523490</t>
+  </si>
+  <si>
+    <t>51523492</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="138">
+  <fills count="146">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,8 +1208,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="136">
+  <borders count="144">
     <border>
       <left/>
       <right/>
@@ -1736,12 +1788,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1826,7 +1906,11 @@
     <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="135" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2408,8 +2492,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="83" t="s">
-        <v>147</v>
+      <c r="R2" s="87" t="s">
+        <v>151</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2534,8 +2618,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="84" t="s">
-        <v>148</v>
+      <c r="R4" s="88" t="s">
+        <v>152</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
   <si>
     <t>shipmentType</t>
   </si>
@@ -485,6 +485,27 @@
   </si>
   <si>
     <t>51523492</t>
+  </si>
+  <si>
+    <t>51524063</t>
+  </si>
+  <si>
+    <t>51524064</t>
+  </si>
+  <si>
+    <t>51524065</t>
+  </si>
+  <si>
+    <t>51524240</t>
+  </si>
+  <si>
+    <t>51524241</t>
+  </si>
+  <si>
+    <t>51524242</t>
+  </si>
+  <si>
+    <t>51524243</t>
   </si>
 </sst>
 </file>
@@ -521,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="146">
+  <fills count="160">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,8 +1269,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="144">
+  <borders count="158">
     <border>
       <left/>
       <right/>
@@ -1816,12 +1907,61 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1910,7 +2050,14 @@
     <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="157" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2492,8 +2639,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="87" t="s">
-        <v>151</v>
+      <c r="R2" s="92" t="s">
+        <v>156</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2555,8 +2702,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="78" t="s">
-        <v>142</v>
+      <c r="R3" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -2618,8 +2765,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="88" t="s">
-        <v>152</v>
+      <c r="R4" s="94" t="s">
+        <v>158</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -2681,8 +2828,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="80" t="s">
-        <v>144</v>
+      <c r="R5" s="95" t="s">
+        <v>159</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>shipmentType</t>
   </si>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>51524243</t>
+  </si>
+  <si>
+    <t>51524551</t>
+  </si>
+  <si>
+    <t>51524552</t>
+  </si>
+  <si>
+    <t>51524553</t>
+  </si>
+  <si>
+    <t>51524554</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="160">
+  <fills count="168">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1339,8 +1351,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="158">
+  <borders count="166">
     <border>
       <left/>
       <right/>
@@ -1956,12 +2008,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2057,7 +2137,11 @@
     <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="157" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="165" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2639,8 +2723,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="92" t="s">
-        <v>156</v>
+      <c r="R2" s="96" t="s">
+        <v>160</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2702,8 +2786,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="93" t="s">
-        <v>157</v>
+      <c r="R3" s="97" t="s">
+        <v>161</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -2765,8 +2849,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="94" t="s">
-        <v>158</v>
+      <c r="R4" s="98" t="s">
+        <v>162</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -2828,8 +2912,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="95" t="s">
-        <v>159</v>
+      <c r="R5" s="99" t="s">
+        <v>163</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/binaries/FCfiles/QA_517.xlsx
+++ b/binaries/FCfiles/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="175">
   <si>
     <t>shipmentType</t>
   </si>
@@ -518,6 +518,39 @@
   </si>
   <si>
     <t>51524554</t>
+  </si>
+  <si>
+    <t>51525163</t>
+  </si>
+  <si>
+    <t>51525164</t>
+  </si>
+  <si>
+    <t>51525165</t>
+  </si>
+  <si>
+    <t>51525166</t>
+  </si>
+  <si>
+    <t>51525286</t>
+  </si>
+  <si>
+    <t>51525287</t>
+  </si>
+  <si>
+    <t>51525288</t>
+  </si>
+  <si>
+    <t>51525289</t>
+  </si>
+  <si>
+    <t>51525360</t>
+  </si>
+  <si>
+    <t>51525362</t>
+  </si>
+  <si>
+    <t>51525365</t>
   </si>
 </sst>
 </file>
@@ -554,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="168">
+  <fills count="190">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,8 +1424,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="166">
+  <borders count="188">
     <border>
       <left/>
       <right/>
@@ -2036,12 +2179,89 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2141,7 +2361,18 @@
     <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="165" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="187" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2723,8 +2954,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="96" t="s">
-        <v>160</v>
+      <c r="R2" s="104" t="s">
+        <v>168</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -2786,8 +3017,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="97" t="s">
-        <v>161</v>
+      <c r="R3" s="108" t="s">
+        <v>172</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -2849,8 +3080,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="98" t="s">
-        <v>162</v>
+      <c r="R4" s="109" t="s">
+        <v>173</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -2912,8 +3143,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="99" t="s">
-        <v>163</v>
+      <c r="R5" s="110" t="s">
+        <v>174</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>
